--- a/house prices/eda.xlsx
+++ b/house prices/eda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="122">
   <si>
     <t>Continuous</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>HouseStyle</t>
-  </si>
-  <si>
-    <t>HMC</t>
   </si>
   <si>
     <t>OverallQual</t>
@@ -643,6 +640,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,29 +661,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -685,25 +688,19 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -994,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125:F126"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,34 +1011,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="8" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1049,7 +1046,7 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1058,7 +1055,7 @@
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1080,21 +1077,21 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1114,15 +1111,15 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1139,22 +1136,22 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>119</v>
+      <c r="I5" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>22</v>
@@ -1169,12 +1166,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="8"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="27"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1188,7 +1185,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1197,7 +1194,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1206,7 +1203,7 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1228,21 +1225,21 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1262,47 +1259,47 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>55</v>
+      <c r="A12" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -1310,8 +1307,8 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>38</v>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>2</v>
@@ -1319,7 +1316,7 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1330,21 +1327,21 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1353,49 +1350,49 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>56</v>
+      <c r="A17" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -1403,8 +1400,8 @@
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>39</v>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
@@ -1412,7 +1409,7 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1423,21 +1420,21 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1446,49 +1443,49 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="12"/>
+      <c r="C20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>59</v>
+      <c r="A22" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1496,8 +1493,8 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>40</v>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
@@ -1505,7 +1502,7 @@
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1516,21 +1513,21 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1539,53 +1536,53 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="F26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="I26" s="11"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>60</v>
+      <c r="A27" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -1593,8 +1590,8 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>41</v>
+      <c r="D27" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>2</v>
@@ -1602,7 +1599,7 @@
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1613,21 +1610,21 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1636,53 +1633,53 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="12"/>
+      <c r="C30" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="8"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>64</v>
+      <c r="A32" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -1690,8 +1687,8 @@
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>49</v>
+      <c r="D32" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>2</v>
@@ -1699,7 +1696,7 @@
       <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1710,21 +1707,21 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1733,51 +1730,51 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="12"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="8"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="8"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="12"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -1785,8 +1782,8 @@
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>50</v>
+      <c r="D37" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>2</v>
@@ -1794,7 +1791,7 @@
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1805,21 +1802,21 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="12"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1828,51 +1825,51 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="12"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="12"/>
+      <c r="F40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="8"/>
       <c r="H40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="12"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="12"/>
-      <c r="I41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="8"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>68</v>
+      <c r="A42" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -1880,8 +1877,8 @@
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>52</v>
+      <c r="D42" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>2</v>
@@ -1889,7 +1886,7 @@
       <c r="F42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1900,21 +1897,21 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="12"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1923,51 +1920,51 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="12"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="8"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="12"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="12"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -1975,8 +1972,8 @@
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>113</v>
+      <c r="D47" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>2</v>
@@ -1984,7 +1981,7 @@
       <c r="F47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -1995,21 +1992,21 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2018,60 +2015,60 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="12"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="12"/>
+      <c r="C50" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" s="12"/>
+      <c r="F50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="8"/>
       <c r="H50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="11"/>
+      <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="12"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="12"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="8"/>
+      <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>94</v>
+      <c r="A52" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>2</v>
@@ -2079,7 +2076,7 @@
       <c r="F52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -2090,21 +2087,21 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="12"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="1" t="s">
         <v>3</v>
       </c>
@@ -2113,62 +2110,62 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="12"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="12"/>
+      <c r="C55" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="8"/>
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="12"/>
+      <c r="F55" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="8"/>
       <c r="H55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="18" t="s">
-        <v>120</v>
+      <c r="I55" s="27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="12"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="12"/>
-      <c r="I56" s="18"/>
+      <c r="A56" s="8"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="8"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="8"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>95</v>
+      <c r="A57" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>2</v>
@@ -2176,8 +2173,8 @@
       <c r="F57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>44</v>
+      <c r="G57" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>2</v>
@@ -2187,21 +2184,21 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="12"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2210,60 +2207,60 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="12"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="8"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="8"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="12"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="12"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="B62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>58</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>2</v>
@@ -2271,8 +2268,8 @@
       <c r="F62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>45</v>
+      <c r="G62" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>2</v>
@@ -2282,21 +2279,21 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="12"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="1" t="s">
         <v>3</v>
       </c>
@@ -2305,60 +2302,60 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="12"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="8"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="8"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="12"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="12"/>
-      <c r="I66" s="16"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>2</v>
@@ -2366,8 +2363,8 @@
       <c r="F67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="12" t="s">
-        <v>46</v>
+      <c r="G67" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>2</v>
@@ -2377,21 +2374,21 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="12"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="12"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="1" t="s">
         <v>3</v>
       </c>
@@ -2400,58 +2397,58 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="12"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="12"/>
+      <c r="C70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="8"/>
       <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="12"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="16"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="12"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="12"/>
-      <c r="I71" s="16"/>
+      <c r="A71" s="8"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="8"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>100</v>
+      <c r="A72" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>63</v>
+        <v>91</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>2</v>
@@ -2459,8 +2456,8 @@
       <c r="F72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="12" t="s">
-        <v>47</v>
+      <c r="G72" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>2</v>
@@ -2470,21 +2467,21 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="12"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="1" t="s">
         <v>3</v>
       </c>
@@ -2493,60 +2490,60 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="12"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="12"/>
+      <c r="C75" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="8"/>
       <c r="E75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G75" s="12"/>
+      <c r="F75" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="8"/>
       <c r="H75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="12"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="12"/>
-      <c r="I76" s="16"/>
+      <c r="A76" s="8"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="8"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="8"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>101</v>
+      <c r="A77" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>2</v>
@@ -2554,8 +2551,8 @@
       <c r="F77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>48</v>
+      <c r="G77" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>2</v>
@@ -2565,21 +2562,21 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="12"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="1" t="s">
         <v>3</v>
       </c>
@@ -2588,51 +2585,51 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="12"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D80" s="12"/>
+      <c r="C80" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="8"/>
       <c r="E80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G80" s="12"/>
+      <c r="F80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="8"/>
       <c r="H80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="16"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="12"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="12"/>
-      <c r="I81" s="16"/>
+      <c r="A81" s="8"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="8"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="8"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>106</v>
+      <c r="A82" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>2</v>
@@ -2640,17 +2637,17 @@
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>51</v>
+      <c r="G82" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>2</v>
@@ -2660,21 +2657,21 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="12"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="1" t="s">
         <v>3</v>
       </c>
@@ -2683,49 +2680,49 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="12"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="12"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G85" s="12"/>
+      <c r="F85" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G85" s="8"/>
       <c r="H85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="16"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="12"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="12"/>
-      <c r="I86" s="16"/>
+      <c r="A86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="8"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="8"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>88</v>
+      <c r="A87" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>2</v>
@@ -2733,17 +2730,17 @@
       <c r="C87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>73</v>
+      <c r="D87" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>2</v>
@@ -2753,21 +2750,21 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="1" t="s">
         <v>3</v>
       </c>
@@ -2776,58 +2773,58 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="12"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" s="12"/>
+      <c r="C90" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" s="8"/>
       <c r="E90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="12"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="8"/>
       <c r="H90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="16"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="12"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="12"/>
-      <c r="I91" s="16"/>
+      <c r="A91" s="8"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="8"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="8"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D92" s="12" t="s">
-        <v>74</v>
+      <c r="D92" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>2</v>
@@ -2837,14 +2834,14 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="12"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="12"/>
+      <c r="G93" s="8"/>
       <c r="H93" s="1" t="s">
         <v>3</v>
       </c>
@@ -2853,45 +2850,45 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="12"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="12"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D95" s="12"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="12"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="16"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D96" s="12"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="12"/>
-      <c r="I96" s="16"/>
+      <c r="D96" s="8"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="8"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D97" s="12" t="s">
-        <v>75</v>
+      <c r="D97" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>91</v>
+        <v>71</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>2</v>
@@ -2901,14 +2898,14 @@
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D98" s="12"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="12"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="1" t="s">
         <v>3</v>
       </c>
@@ -2917,45 +2914,45 @@
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D99" s="12"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="12"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D100" s="12"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="12"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="16"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D101" s="12"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="12"/>
-      <c r="I101" s="16"/>
+      <c r="D101" s="8"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="8"/>
+      <c r="I101" s="9"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D102" s="12" t="s">
-        <v>77</v>
+      <c r="D102" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>105</v>
+        <v>71</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>2</v>
@@ -2965,14 +2962,14 @@
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D103" s="12"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="12"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
@@ -2981,64 +2978,64 @@
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D104" s="12"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="12"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D105" s="12"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="12"/>
+      <c r="F105" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G105" s="8"/>
       <c r="H105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="16"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D106" s="12"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="12"/>
-      <c r="I106" s="16"/>
+      <c r="D106" s="8"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="8"/>
+      <c r="I106" s="9"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D107" s="12" t="s">
-        <v>78</v>
+      <c r="D107" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>110</v>
+        <v>71</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D108" s="12"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="12"/>
+      <c r="G108" s="8"/>
       <c r="H108" s="1" t="s">
         <v>3</v>
       </c>
@@ -3047,62 +3044,62 @@
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D109" s="12"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="12"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D110" s="12"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="12"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="16"/>
+      <c r="I110" s="9"/>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D111" s="12"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="12"/>
-      <c r="I111" s="16"/>
+      <c r="D111" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="8"/>
+      <c r="I111" s="9"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D112" s="12" t="s">
-        <v>80</v>
+      <c r="D112" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>111</v>
+        <v>71</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D113" s="12"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="12"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="1" t="s">
         <v>3</v>
       </c>
@@ -3111,48 +3108,48 @@
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D114" s="12"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="12"/>
+      <c r="G114" s="8"/>
       <c r="H114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D115" s="12"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F115" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G115" s="12"/>
+      <c r="F115" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" s="8"/>
       <c r="H115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I115" s="16"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D116" s="12"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="12"/>
-      <c r="I116" s="16"/>
+      <c r="D116" s="8"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="8"/>
+      <c r="I116" s="9"/>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D117" s="12" t="s">
-        <v>81</v>
+      <c r="D117" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D118" s="12"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="1" t="s">
         <v>3</v>
       </c>
@@ -3161,27 +3158,27 @@
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D119" s="12"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D120" s="12"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F120" s="24" t="s">
+      <c r="F120" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="8"/>
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="8" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D121" s="12"/>
-      <c r="F121" s="24"/>
-    </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D122" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>2</v>
@@ -3191,7 +3188,7 @@
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D123" s="12"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="1" t="s">
         <v>3</v>
       </c>
@@ -3200,27 +3197,27 @@
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D124" s="12"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D125" s="12"/>
+      <c r="D125" s="8"/>
       <c r="E125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F125" s="27" t="s">
-        <v>114</v>
+      <c r="F125" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D126" s="12"/>
-      <c r="F126" s="27"/>
+      <c r="D126" s="8"/>
+      <c r="F126" s="17"/>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D127" s="12" t="s">
-        <v>85</v>
+      <c r="D127" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>2</v>
@@ -3230,7 +3227,7 @@
       </c>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D128" s="12"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="1" t="s">
         <v>3</v>
       </c>
@@ -3239,25 +3236,25 @@
       </c>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D129" s="12"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D130" s="12"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="16"/>
+      <c r="F130" s="9"/>
     </row>
     <row r="131" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D131" s="12"/>
-      <c r="F131" s="16"/>
+      <c r="D131" s="8"/>
+      <c r="F131" s="9"/>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D132" s="12" t="s">
-        <v>86</v>
+      <c r="D132" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>2</v>
@@ -3267,7 +3264,7 @@
       </c>
     </row>
     <row r="133" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D133" s="12"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="1" t="s">
         <v>3</v>
       </c>
@@ -3276,27 +3273,27 @@
       </c>
     </row>
     <row r="134" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D134" s="12"/>
+      <c r="D134" s="8"/>
       <c r="E134" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D135" s="12"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="15" t="s">
-        <v>112</v>
+      <c r="F135" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D136" s="12"/>
-      <c r="F136" s="15"/>
+      <c r="D136" s="8"/>
+      <c r="F136" s="10"/>
     </row>
     <row r="137" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D137" s="12" t="s">
-        <v>87</v>
+      <c r="D137" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>2</v>
@@ -3306,7 +3303,7 @@
       </c>
     </row>
     <row r="138" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D138" s="12"/>
+      <c r="D138" s="8"/>
       <c r="E138" s="1" t="s">
         <v>3</v>
       </c>
@@ -3315,27 +3312,27 @@
       </c>
     </row>
     <row r="139" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D139" s="12"/>
+      <c r="D139" s="8"/>
       <c r="E139" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D140" s="12"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F140" s="26" t="s">
+      <c r="F140" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="8"/>
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="8" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D141" s="12"/>
-      <c r="F141" s="26"/>
-    </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D142" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>2</v>
@@ -3345,7 +3342,7 @@
       </c>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D143" s="12"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="1" t="s">
         <v>3</v>
       </c>
@@ -3354,37 +3351,37 @@
       </c>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D144" s="12"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="145" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D145" s="12"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F145" s="15" t="s">
-        <v>112</v>
+      <c r="F145" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D146" s="12"/>
-      <c r="F146" s="15"/>
+      <c r="D146" s="8"/>
+      <c r="F146" s="10"/>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D147" s="12" t="s">
-        <v>103</v>
+      <c r="D147" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D148" s="12"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="1" t="s">
         <v>3</v>
       </c>
@@ -3393,37 +3390,37 @@
       </c>
     </row>
     <row r="149" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D149" s="12"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D150" s="12"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F150" s="28" t="s">
-        <v>116</v>
+      <c r="F150" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D151" s="12"/>
-      <c r="F151" s="28"/>
+      <c r="D151" s="8"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D152" s="12" t="s">
-        <v>108</v>
+      <c r="D152" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D153" s="12"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="1" t="s">
         <v>3</v>
       </c>
@@ -3432,35 +3429,35 @@
       </c>
     </row>
     <row r="154" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D154" s="12"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D155" s="12"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F155" s="16"/>
+      <c r="F155" s="9"/>
     </row>
     <row r="156" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D156" s="12"/>
-      <c r="F156" s="16"/>
+      <c r="D156" s="8"/>
+      <c r="F156" s="9"/>
     </row>
     <row r="157" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D157" s="12" t="s">
-        <v>109</v>
+      <c r="D157" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D158" s="12"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="1" t="s">
         <v>3</v>
       </c>
@@ -3469,25 +3466,25 @@
       </c>
     </row>
     <row r="159" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D159" s="12"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="160" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D160" s="12"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F160" s="16"/>
+      <c r="F160" s="9"/>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D161" s="12"/>
-      <c r="F161" s="16"/>
+      <c r="D161" s="8"/>
+      <c r="F161" s="9"/>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D162" s="12" t="s">
-        <v>121</v>
+      <c r="D162" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>2</v>
@@ -3497,7 +3494,7 @@
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D163" s="12"/>
+      <c r="D163" s="8"/>
       <c r="E163" s="1" t="s">
         <v>3</v>
       </c>
@@ -3506,25 +3503,25 @@
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D164" s="12"/>
+      <c r="D164" s="8"/>
       <c r="E164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D165" s="12"/>
+      <c r="D165" s="8"/>
       <c r="E165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F165" s="16"/>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D166" s="12"/>
-      <c r="F166" s="16"/>
+      <c r="D166" s="8"/>
+      <c r="F166" s="9"/>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D167" s="12" t="s">
-        <v>122</v>
+      <c r="D167" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>2</v>
@@ -3534,7 +3531,7 @@
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D168" s="12"/>
+      <c r="D168" s="8"/>
       <c r="E168" s="1" t="s">
         <v>3</v>
       </c>
@@ -3543,74 +3540,106 @@
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D169" s="12"/>
+      <c r="D169" s="8"/>
       <c r="E169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D170" s="12"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F170" s="15" t="s">
-        <v>112</v>
+      <c r="F170" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D171" s="12"/>
-      <c r="F171" s="15"/>
+      <c r="D171" s="8"/>
+      <c r="F171" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="G112:G116"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="F100:F101"/>
     <mergeCell ref="D102:D106"/>
@@ -3635,86 +3664,54 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="G92:G96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="G112:G116"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="F120:F121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/house prices/eda.xlsx
+++ b/house prices/eda.xlsx
@@ -533,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -627,11 +627,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -640,17 +651,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,20 +666,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,20 +699,23 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,33 +1025,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="12" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="K1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1046,7 +1060,7 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1055,7 +1069,7 @@
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1077,21 +1091,21 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1111,15 +1125,15 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1136,21 +1150,21 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="14" t="s">
         <v>118</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1166,12 +1180,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="8"/>
-      <c r="I6" s="27"/>
+      <c r="A6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="14"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1185,7 +1199,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1194,7 +1208,7 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1203,7 +1217,7 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1225,21 +1239,21 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,46 +1273,46 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="8"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1307,7 +1321,7 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1316,7 +1330,7 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1327,21 +1341,21 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1350,48 +1364,48 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="8"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="8"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="9"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1400,7 +1414,7 @@
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1409,7 +1423,7 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1420,21 +1434,21 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1443,48 +1457,48 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="26"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="8"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="8"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1493,7 +1507,7 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1502,7 +1516,7 @@
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1513,21 +1527,21 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1536,52 +1550,52 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="26"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="9"/>
       <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="I26" s="26"/>
+      <c r="G26" s="9"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1590,7 +1604,7 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1599,7 +1613,7 @@
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1610,21 +1624,21 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1633,52 +1647,52 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="9"/>
       <c r="F31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="9"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1687,7 +1701,7 @@
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1696,7 +1710,7 @@
       <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1707,21 +1721,21 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="8"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1730,50 +1744,50 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="8"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="8"/>
-      <c r="I36" s="26"/>
+      <c r="A36" s="9"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1782,7 +1796,7 @@
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1791,7 +1805,7 @@
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1802,21 +1816,21 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="8"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1825,50 +1839,50 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="8"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="26"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="8"/>
-      <c r="I41" s="26"/>
+      <c r="A41" s="9"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1877,7 +1891,7 @@
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1886,7 +1900,7 @@
       <c r="F42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1897,21 +1911,21 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1920,50 +1934,50 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="8"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="26"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="8"/>
-      <c r="I46" s="26"/>
+      <c r="D46" s="9"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1972,7 +1986,7 @@
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1981,7 +1995,7 @@
       <c r="F47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -1992,21 +2006,21 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2015,50 +2029,50 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="8"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="26"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="8"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="8"/>
-      <c r="I51" s="26"/>
+      <c r="D51" s="9"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2067,7 +2081,7 @@
       <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2076,7 +2090,7 @@
       <c r="F52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -2087,21 +2101,21 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="1" t="s">
         <v>3</v>
       </c>
@@ -2110,52 +2124,52 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="8"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="8"/>
-      <c r="I56" s="27"/>
+      <c r="D56" s="9"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2164,7 +2178,7 @@
       <c r="C57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2173,7 +2187,7 @@
       <c r="F57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -2184,21 +2198,21 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="8"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="1" t="s">
         <v>3</v>
       </c>
@@ -2207,50 +2221,50 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="8"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G60" s="8"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
       <c r="C61" s="23"/>
-      <c r="D61" s="8"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="8"/>
-      <c r="I61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2259,7 +2273,7 @@
       <c r="C62" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -2268,7 +2282,7 @@
       <c r="F62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -2279,21 +2293,21 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="1" t="s">
         <v>3</v>
       </c>
@@ -2302,50 +2316,50 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="8"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="8"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="8"/>
-      <c r="I66" s="9"/>
+      <c r="A66" s="9"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="9"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2354,7 +2368,7 @@
       <c r="C67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -2363,7 +2377,7 @@
       <c r="F67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2374,21 +2388,21 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="8"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="1" t="s">
         <v>3</v>
       </c>
@@ -2397,48 +2411,48 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="8"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="8"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="9"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="8"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="8"/>
-      <c r="I71" s="9"/>
+      <c r="A71" s="9"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="9"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="9"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2447,7 +2461,7 @@
       <c r="C72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2456,7 +2470,7 @@
       <c r="F72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -2467,21 +2481,21 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="8"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="1" t="s">
         <v>3</v>
       </c>
@@ -2490,50 +2504,50 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="8"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="8"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="9"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="8"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="8"/>
-      <c r="I76" s="9"/>
+      <c r="A76" s="9"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="9"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2542,7 +2556,7 @@
       <c r="C77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -2551,7 +2565,7 @@
       <c r="F77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2562,21 +2576,21 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="8"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="1" t="s">
         <v>3</v>
       </c>
@@ -2585,50 +2599,50 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="8"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G80" s="8"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="9"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="8"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="8"/>
-      <c r="I81" s="9"/>
+      <c r="A81" s="9"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="9"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2637,7 +2651,7 @@
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -2646,7 +2660,7 @@
       <c r="F82" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -2657,21 +2671,21 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="8"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="1" t="s">
         <v>3</v>
       </c>
@@ -2680,48 +2694,48 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="8"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="8"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="F85" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G85" s="8"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="9"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="8"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="8"/>
-      <c r="I86" s="9"/>
+      <c r="A86" s="9"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="9"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="9"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2730,7 +2744,7 @@
       <c r="C87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -2739,7 +2753,7 @@
       <c r="F87" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -2750,21 +2764,21 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="8"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="8"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="1" t="s">
         <v>3</v>
       </c>
@@ -2773,48 +2787,48 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="8"/>
+      <c r="G89" s="9"/>
       <c r="H89" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="8"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="9"/>
       <c r="H90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="9"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="8"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="8"/>
-      <c r="I91" s="9"/>
+      <c r="A91" s="9"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="9"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="9"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -2823,7 +2837,7 @@
       <c r="F92" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="9" t="s">
         <v>83</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -2834,14 +2848,14 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="8"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="8"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="1" t="s">
         <v>3</v>
       </c>
@@ -2850,35 +2864,35 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="8"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="8"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D95" s="8"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="8"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="9"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D96" s="8"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="8"/>
-      <c r="I96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="9"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -2887,7 +2901,7 @@
       <c r="F97" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -2898,14 +2912,14 @@
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D98" s="8"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="8"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="1" t="s">
         <v>3</v>
       </c>
@@ -2914,35 +2928,35 @@
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D99" s="8"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="8"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D100" s="8"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="19"/>
-      <c r="G100" s="8"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="9"/>
+      <c r="I100" s="15"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D101" s="8"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="8"/>
-      <c r="I101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="9"/>
+      <c r="I101" s="15"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -2951,7 +2965,7 @@
       <c r="F102" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="9" t="s">
         <v>104</v>
       </c>
       <c r="H102" s="1" t="s">
@@ -2962,14 +2976,14 @@
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D103" s="8"/>
+      <c r="D103" s="9"/>
       <c r="E103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="8"/>
+      <c r="G103" s="9"/>
       <c r="H103" s="1" t="s">
         <v>3</v>
       </c>
@@ -2978,37 +2992,37 @@
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D104" s="8"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="8"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D105" s="8"/>
+      <c r="D105" s="9"/>
       <c r="E105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G105" s="8"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="9"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D106" s="8"/>
+      <c r="D106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="8"/>
-      <c r="I106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -3017,7 +3031,7 @@
       <c r="F107" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="9" t="s">
         <v>109</v>
       </c>
       <c r="H107" s="1" t="s">
@@ -3028,14 +3042,14 @@
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D108" s="8"/>
+      <c r="D108" s="9"/>
       <c r="E108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="8"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="1" t="s">
         <v>3</v>
       </c>
@@ -3044,35 +3058,35 @@
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D109" s="8"/>
+      <c r="D109" s="9"/>
       <c r="E109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="8"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D110" s="8"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="9"/>
       <c r="H110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="9"/>
+      <c r="I110" s="15"/>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D111" s="8"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="8"/>
-      <c r="I111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="9"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -3081,7 +3095,7 @@
       <c r="F112" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H112" s="1" t="s">
@@ -3092,14 +3106,14 @@
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D113" s="8"/>
+      <c r="D113" s="9"/>
       <c r="E113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="8"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="1" t="s">
         <v>3</v>
       </c>
@@ -3108,37 +3122,37 @@
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D114" s="8"/>
+      <c r="D114" s="9"/>
       <c r="E114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="8"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D115" s="8"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="F115" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G115" s="8"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I115" s="9"/>
+      <c r="I115" s="15"/>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D116" s="8"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="8"/>
-      <c r="I116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
+      <c r="I116" s="15"/>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -3149,7 +3163,7 @@
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D118" s="8"/>
+      <c r="D118" s="9"/>
       <c r="E118" s="1" t="s">
         <v>3</v>
       </c>
@@ -3158,26 +3172,26 @@
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D119" s="8"/>
+      <c r="D119" s="9"/>
       <c r="E119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D120" s="8"/>
+      <c r="D120" s="9"/>
       <c r="E120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F120" s="18" t="s">
+      <c r="F120" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D121" s="8"/>
-      <c r="F121" s="18"/>
+      <c r="D121" s="9"/>
+      <c r="F121" s="28"/>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -3188,7 +3202,7 @@
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D123" s="8"/>
+      <c r="D123" s="9"/>
       <c r="E123" s="1" t="s">
         <v>3</v>
       </c>
@@ -3197,26 +3211,26 @@
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D124" s="8"/>
+      <c r="D124" s="9"/>
       <c r="E124" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D125" s="8"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="126" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D126" s="8"/>
-      <c r="F126" s="17"/>
+      <c r="D126" s="9"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -3227,7 +3241,7 @@
       </c>
     </row>
     <row r="128" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D128" s="8"/>
+      <c r="D128" s="9"/>
       <c r="E128" s="1" t="s">
         <v>3</v>
       </c>
@@ -3236,24 +3250,24 @@
       </c>
     </row>
     <row r="129" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D129" s="8"/>
+      <c r="D129" s="9"/>
       <c r="E129" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D130" s="8"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="9"/>
+      <c r="F130" s="15"/>
     </row>
     <row r="131" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D131" s="8"/>
-      <c r="F131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -3264,7 +3278,7 @@
       </c>
     </row>
     <row r="133" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D133" s="8"/>
+      <c r="D133" s="9"/>
       <c r="E133" s="1" t="s">
         <v>3</v>
       </c>
@@ -3273,26 +3287,26 @@
       </c>
     </row>
     <row r="134" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D134" s="8"/>
+      <c r="D134" s="9"/>
       <c r="E134" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D135" s="8"/>
+      <c r="D135" s="9"/>
       <c r="E135" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="136" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D136" s="8"/>
-      <c r="F136" s="10"/>
+      <c r="D136" s="9"/>
+      <c r="F136" s="8"/>
     </row>
     <row r="137" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -3303,7 +3317,7 @@
       </c>
     </row>
     <row r="138" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D138" s="8"/>
+      <c r="D138" s="9"/>
       <c r="E138" s="1" t="s">
         <v>3</v>
       </c>
@@ -3312,26 +3326,26 @@
       </c>
     </row>
     <row r="139" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D139" s="8"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D140" s="8"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="141" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D141" s="8"/>
-      <c r="F141" s="16"/>
+      <c r="D141" s="9"/>
+      <c r="F141" s="26"/>
     </row>
     <row r="142" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -3342,7 +3356,7 @@
       </c>
     </row>
     <row r="143" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D143" s="8"/>
+      <c r="D143" s="9"/>
       <c r="E143" s="1" t="s">
         <v>3</v>
       </c>
@@ -3351,26 +3365,26 @@
       </c>
     </row>
     <row r="144" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D144" s="8"/>
+      <c r="D144" s="9"/>
       <c r="E144" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="145" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D145" s="8"/>
+      <c r="D145" s="9"/>
       <c r="E145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F145" s="10" t="s">
+      <c r="F145" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="146" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D146" s="8"/>
-      <c r="F146" s="10"/>
+      <c r="D146" s="9"/>
+      <c r="F146" s="8"/>
     </row>
     <row r="147" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -3381,7 +3395,7 @@
       </c>
     </row>
     <row r="148" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D148" s="8"/>
+      <c r="D148" s="9"/>
       <c r="E148" s="1" t="s">
         <v>3</v>
       </c>
@@ -3390,26 +3404,26 @@
       </c>
     </row>
     <row r="149" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D149" s="8"/>
+      <c r="D149" s="9"/>
       <c r="E149" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D150" s="8"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="25" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="151" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D151" s="8"/>
-      <c r="F151" s="11"/>
+      <c r="D151" s="9"/>
+      <c r="F151" s="25"/>
     </row>
     <row r="152" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -3420,7 +3434,7 @@
       </c>
     </row>
     <row r="153" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D153" s="8"/>
+      <c r="D153" s="9"/>
       <c r="E153" s="1" t="s">
         <v>3</v>
       </c>
@@ -3429,24 +3443,24 @@
       </c>
     </row>
     <row r="154" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D154" s="8"/>
+      <c r="D154" s="9"/>
       <c r="E154" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D155" s="8"/>
+      <c r="D155" s="9"/>
       <c r="E155" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F155" s="9"/>
+      <c r="F155" s="15"/>
     </row>
     <row r="156" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D156" s="8"/>
-      <c r="F156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="F156" s="15"/>
     </row>
     <row r="157" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -3457,7 +3471,7 @@
       </c>
     </row>
     <row r="158" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D158" s="8"/>
+      <c r="D158" s="9"/>
       <c r="E158" s="1" t="s">
         <v>3</v>
       </c>
@@ -3466,24 +3480,24 @@
       </c>
     </row>
     <row r="159" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D159" s="8"/>
+      <c r="D159" s="9"/>
       <c r="E159" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="160" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D160" s="8"/>
+      <c r="D160" s="9"/>
       <c r="E160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F160" s="9"/>
+      <c r="F160" s="15"/>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D161" s="8"/>
-      <c r="F161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="F161" s="15"/>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -3494,7 +3508,7 @@
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D163" s="8"/>
+      <c r="D163" s="9"/>
       <c r="E163" s="1" t="s">
         <v>3</v>
       </c>
@@ -3503,24 +3517,24 @@
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D164" s="8"/>
+      <c r="D164" s="9"/>
       <c r="E164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D165" s="8"/>
+      <c r="D165" s="9"/>
       <c r="E165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F165" s="9"/>
+      <c r="F165" s="15"/>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D166" s="8"/>
-      <c r="F166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="F166" s="15"/>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -3531,7 +3545,7 @@
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D168" s="8"/>
+      <c r="D168" s="9"/>
       <c r="E168" s="1" t="s">
         <v>3</v>
       </c>
@@ -3540,106 +3554,74 @@
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D169" s="8"/>
+      <c r="D169" s="9"/>
       <c r="E169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D170" s="8"/>
+      <c r="D170" s="9"/>
       <c r="E170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F170" s="10" t="s">
+      <c r="F170" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D171" s="8"/>
-      <c r="F171" s="10"/>
+      <c r="D171" s="9"/>
+      <c r="F171" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="G77:G81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G87:G91"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="G112:G116"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G102:G106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="G92:G96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="F95:F96"/>
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="F100:F101"/>
     <mergeCell ref="D102:D106"/>
@@ -3664,54 +3646,86 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G102:G106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="I110:I111"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="G112:G116"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="G77:G81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G87:G91"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F65:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
